--- a/STOCK UTN/2023/01 JAN/24 Januari - 28 Januari 2022.xlsx
+++ b/STOCK UTN/2023/01 JAN/24 Januari - 28 Januari 2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="8190" tabRatio="803" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11970" tabRatio="803" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JK KENKO" sheetId="1" r:id="rId1"/>
@@ -10741,13 +10741,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -10997,324 +11003,324 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -12803,8 +12809,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C2298"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A2284" sqref="A2284"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A57" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -13075,9 +13081,9 @@
       <c r="C1" s="91"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A2" s="91" t="str">
+      <c r="A2" s="91" t="e">
         <f ca="1">"TANGGAL : "&amp;SUBSTITUTE(MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1),".xlsx","")</f>
-        <v>TANGGAL : 24 Januari - 28 Januari 2022</v>
+        <v>#N/A</v>
       </c>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -40542,10 +40548,10 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A126" s="113" t="s">
+      <c r="A126" s="104" t="s">
         <v>2040</v>
       </c>
-      <c r="B126" s="113"/>
+      <c r="B126" s="104"/>
       <c r="C126" s="97" t="s">
         <v>2039</v>
       </c>
@@ -40560,8 +40566,8 @@
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="113"/>
-      <c r="B127" s="113"/>
+      <c r="A127" s="104"/>
+      <c r="B127" s="104"/>
       <c r="C127" s="98"/>
       <c r="D127" s="100"/>
       <c r="E127" s="102"/>
@@ -41333,25 +41339,25 @@
       <c r="F173" s="4"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="103"/>
-      <c r="B174" s="105" t="s">
+      <c r="A174" s="105"/>
+      <c r="B174" s="107" t="s">
         <v>1552</v>
       </c>
-      <c r="C174" s="106"/>
-      <c r="D174" s="109">
+      <c r="C174" s="108"/>
+      <c r="D174" s="111">
         <v>1800</v>
       </c>
-      <c r="E174" s="111">
+      <c r="E174" s="113">
         <v>653</v>
       </c>
       <c r="F174" s="4"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="104"/>
-      <c r="B175" s="107"/>
-      <c r="C175" s="108"/>
-      <c r="D175" s="110"/>
-      <c r="E175" s="112"/>
+      <c r="A175" s="106"/>
+      <c r="B175" s="109"/>
+      <c r="C175" s="110"/>
+      <c r="D175" s="112"/>
+      <c r="E175" s="114"/>
       <c r="F175" s="4"/>
     </row>
     <row r="176" spans="1:6">
@@ -47937,10 +47943,10 @@
       <c r="D551" s="13" t="s">
         <v>2051</v>
       </c>
-      <c r="E551" s="114" t="s">
+      <c r="E551" s="103" t="s">
         <v>2653</v>
       </c>
-      <c r="F551" s="114"/>
+      <c r="F551" s="103"/>
     </row>
     <row r="552" spans="1:6">
       <c r="A552" s="93" t="s">
@@ -53696,6 +53702,92 @@
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="A866:B866"/>
+    <mergeCell ref="A867:B868"/>
+    <mergeCell ref="C867:C868"/>
+    <mergeCell ref="D867:D868"/>
+    <mergeCell ref="E867:E868"/>
+    <mergeCell ref="F867:F868"/>
+    <mergeCell ref="F837:F838"/>
+    <mergeCell ref="A836:B836"/>
+    <mergeCell ref="A837:B838"/>
+    <mergeCell ref="C837:C838"/>
+    <mergeCell ref="D837:D838"/>
+    <mergeCell ref="E837:E838"/>
+    <mergeCell ref="F699:F700"/>
+    <mergeCell ref="A698:B698"/>
+    <mergeCell ref="A699:B700"/>
+    <mergeCell ref="C699:C700"/>
+    <mergeCell ref="D699:D700"/>
+    <mergeCell ref="E699:E700"/>
+    <mergeCell ref="E636:E637"/>
+    <mergeCell ref="F636:F637"/>
+    <mergeCell ref="A635:B635"/>
+    <mergeCell ref="A636:B637"/>
+    <mergeCell ref="C636:C637"/>
+    <mergeCell ref="D636:D637"/>
+    <mergeCell ref="A323:B324"/>
+    <mergeCell ref="C323:C324"/>
+    <mergeCell ref="D323:D324"/>
+    <mergeCell ref="E323:E324"/>
+    <mergeCell ref="F323:F324"/>
+    <mergeCell ref="F458:F459"/>
+    <mergeCell ref="A516:B516"/>
+    <mergeCell ref="A517:B518"/>
+    <mergeCell ref="C517:C518"/>
+    <mergeCell ref="D517:D518"/>
+    <mergeCell ref="E517:E518"/>
+    <mergeCell ref="A335:B335"/>
+    <mergeCell ref="F394:F395"/>
+    <mergeCell ref="A336:B337"/>
+    <mergeCell ref="C336:C337"/>
+    <mergeCell ref="D336:D337"/>
+    <mergeCell ref="E336:E337"/>
+    <mergeCell ref="F336:F337"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="B174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="A126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F600:F601"/>
+    <mergeCell ref="A551:B551"/>
+    <mergeCell ref="A552:B553"/>
+    <mergeCell ref="C552:C553"/>
+    <mergeCell ref="D552:D553"/>
+    <mergeCell ref="E552:E553"/>
+    <mergeCell ref="F552:F553"/>
+    <mergeCell ref="A599:B599"/>
+    <mergeCell ref="A600:B601"/>
+    <mergeCell ref="C600:C601"/>
+    <mergeCell ref="D600:D601"/>
+    <mergeCell ref="E600:E601"/>
+    <mergeCell ref="F517:F518"/>
+    <mergeCell ref="E551:F551"/>
+    <mergeCell ref="A457:B457"/>
+    <mergeCell ref="A458:B459"/>
+    <mergeCell ref="C458:C459"/>
+    <mergeCell ref="D458:D459"/>
+    <mergeCell ref="E458:E459"/>
     <mergeCell ref="A190:C190"/>
     <mergeCell ref="A255:C255"/>
     <mergeCell ref="A322:C322"/>
@@ -53720,92 +53812,6 @@
     <mergeCell ref="D191:D192"/>
     <mergeCell ref="E191:E192"/>
     <mergeCell ref="F191:F192"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F600:F601"/>
-    <mergeCell ref="A551:B551"/>
-    <mergeCell ref="A552:B553"/>
-    <mergeCell ref="C552:C553"/>
-    <mergeCell ref="D552:D553"/>
-    <mergeCell ref="E552:E553"/>
-    <mergeCell ref="F552:F553"/>
-    <mergeCell ref="A599:B599"/>
-    <mergeCell ref="A600:B601"/>
-    <mergeCell ref="C600:C601"/>
-    <mergeCell ref="D600:D601"/>
-    <mergeCell ref="E600:E601"/>
-    <mergeCell ref="F517:F518"/>
-    <mergeCell ref="E551:F551"/>
-    <mergeCell ref="A457:B457"/>
-    <mergeCell ref="A458:B459"/>
-    <mergeCell ref="C458:C459"/>
-    <mergeCell ref="D458:D459"/>
-    <mergeCell ref="E458:E459"/>
-    <mergeCell ref="A126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="B174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="A323:B324"/>
-    <mergeCell ref="C323:C324"/>
-    <mergeCell ref="D323:D324"/>
-    <mergeCell ref="E323:E324"/>
-    <mergeCell ref="F323:F324"/>
-    <mergeCell ref="F458:F459"/>
-    <mergeCell ref="A516:B516"/>
-    <mergeCell ref="A517:B518"/>
-    <mergeCell ref="C517:C518"/>
-    <mergeCell ref="D517:D518"/>
-    <mergeCell ref="E517:E518"/>
-    <mergeCell ref="A335:B335"/>
-    <mergeCell ref="F394:F395"/>
-    <mergeCell ref="A336:B337"/>
-    <mergeCell ref="C336:C337"/>
-    <mergeCell ref="D336:D337"/>
-    <mergeCell ref="E336:E337"/>
-    <mergeCell ref="F336:F337"/>
-    <mergeCell ref="F699:F700"/>
-    <mergeCell ref="A698:B698"/>
-    <mergeCell ref="A699:B700"/>
-    <mergeCell ref="C699:C700"/>
-    <mergeCell ref="D699:D700"/>
-    <mergeCell ref="E699:E700"/>
-    <mergeCell ref="E636:E637"/>
-    <mergeCell ref="F636:F637"/>
-    <mergeCell ref="A635:B635"/>
-    <mergeCell ref="A636:B637"/>
-    <mergeCell ref="C636:C637"/>
-    <mergeCell ref="D636:D637"/>
-    <mergeCell ref="A866:B866"/>
-    <mergeCell ref="A867:B868"/>
-    <mergeCell ref="C867:C868"/>
-    <mergeCell ref="D867:D868"/>
-    <mergeCell ref="E867:E868"/>
-    <mergeCell ref="F867:F868"/>
-    <mergeCell ref="F837:F838"/>
-    <mergeCell ref="A836:B836"/>
-    <mergeCell ref="A837:B838"/>
-    <mergeCell ref="C837:C838"/>
-    <mergeCell ref="D837:D838"/>
-    <mergeCell ref="E837:E838"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.59055118110236227" bottom="1.1811023622047245" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
